--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0326\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,10 +283,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -441,16 +436,25 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$53</c:f>
+              <c:f>Sheet1!$B$3:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -603,6 +607,15 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,10 +654,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -794,16 +807,25 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$53</c:f>
+              <c:f>Sheet1!$C$3:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -956,6 +978,15 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,9 +2056,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2038,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2609,7 +2642,58 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B54" s="5">
+        <v>447</v>
+      </c>
+      <c r="C54" s="5">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B55" s="5">
+        <v>493</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B56" s="5">
+        <v>678</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B57" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B58" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>43920</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200401/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353B94F-0BEA-0640-820B-B666591C473F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,11 +70,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -283,10 +288,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$56</c:f>
+              <c:f>Sheet1!$A$3:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -445,16 +450,25 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$56</c:f>
+              <c:f>Sheet1!$B$3:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -616,6 +630,15 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,10 +677,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$56</c:f>
+              <c:f>Sheet1!$A$3:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -816,16 +839,25 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$56</c:f>
+              <c:f>Sheet1!$C$3:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -987,6 +1019,15 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1186,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1772,7 +1812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2052,37 +2098,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="6">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2091,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
@@ -2102,7 +2148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
@@ -2113,7 +2159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
@@ -2124,7 +2170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
@@ -2135,7 +2181,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>43869</v>
       </c>
@@ -2146,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>43870</v>
       </c>
@@ -2157,7 +2203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>43871</v>
       </c>
@@ -2168,7 +2214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>43872</v>
       </c>
@@ -2179,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>43873</v>
       </c>
@@ -2190,7 +2236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>43874</v>
       </c>
@@ -2201,7 +2247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>43875</v>
       </c>
@@ -2212,7 +2258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>43876</v>
       </c>
@@ -2223,7 +2269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>43877</v>
       </c>
@@ -2234,7 +2280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>43878</v>
       </c>
@@ -2245,7 +2291,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -2256,7 +2302,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>43880</v>
       </c>
@@ -2267,7 +2313,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>43881</v>
       </c>
@@ -2278,7 +2324,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>43882</v>
       </c>
@@ -2289,7 +2335,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>43883</v>
       </c>
@@ -2300,7 +2346,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>43884</v>
       </c>
@@ -2311,7 +2357,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43885</v>
       </c>
@@ -2322,7 +2368,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>43886</v>
       </c>
@@ -2333,7 +2379,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>43887</v>
       </c>
@@ -2344,7 +2390,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>43888</v>
       </c>
@@ -2355,7 +2401,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43889</v>
       </c>
@@ -2366,7 +2412,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43890</v>
       </c>
@@ -2377,7 +2423,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43891</v>
       </c>
@@ -2388,7 +2434,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43892</v>
       </c>
@@ -2399,7 +2445,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43893</v>
       </c>
@@ -2410,7 +2456,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43894</v>
       </c>
@@ -2421,7 +2467,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43895</v>
       </c>
@@ -2432,7 +2478,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43896</v>
       </c>
@@ -2443,7 +2489,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43897</v>
       </c>
@@ -2454,7 +2500,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43898</v>
       </c>
@@ -2465,7 +2511,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43899</v>
       </c>
@@ -2476,7 +2522,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43900</v>
       </c>
@@ -2487,7 +2533,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43901</v>
       </c>
@@ -2498,7 +2544,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43902</v>
       </c>
@@ -2509,7 +2555,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43903</v>
       </c>
@@ -2520,7 +2566,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43904</v>
       </c>
@@ -2531,7 +2577,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43905</v>
       </c>
@@ -2542,7 +2588,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43906</v>
       </c>
@@ -2553,7 +2599,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43907</v>
       </c>
@@ -2564,7 +2610,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43908</v>
       </c>
@@ -2575,7 +2621,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43909</v>
       </c>
@@ -2586,7 +2632,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43910</v>
       </c>
@@ -2597,7 +2643,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43911</v>
       </c>
@@ -2608,7 +2654,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43912</v>
       </c>
@@ -2619,7 +2665,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43913</v>
       </c>
@@ -2630,7 +2676,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43914</v>
       </c>
@@ -2641,7 +2687,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43915</v>
       </c>
@@ -2652,7 +2698,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43916</v>
       </c>
@@ -2663,7 +2709,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43917</v>
       </c>
@@ -2674,26 +2720,41 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43918</v>
       </c>
       <c r="B57" s="5">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="C57" s="5">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43919</v>
       </c>
       <c r="B58" s="5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+      <c r="C58" s="5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43920</v>
       </c>
+      <c r="B59" s="5">
+        <v>1226</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200401/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353B94F-0BEA-0640-820B-B666591C473F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,11 +69,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +225,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -288,10 +288,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$59</c:f>
+              <c:f>Sheet1!$A$3:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -459,16 +459,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$59</c:f>
+              <c:f>Sheet1!$B$3:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -639,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,10 +683,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$59</c:f>
+              <c:f>Sheet1!$A$3:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="1">
                   <c:v>43865</c:v>
                 </c:pt>
@@ -848,16 +854,19 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$59</c:f>
+              <c:f>Sheet1!$C$3:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,6 +1198,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1812,13 +1825,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2098,37 +2105,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2137,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43865</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43866</v>
       </c>
@@ -2159,7 +2166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43867</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43868</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43869</v>
       </c>
@@ -2192,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43870</v>
       </c>
@@ -2203,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43871</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43872</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43873</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43874</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43875</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43876</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43877</v>
       </c>
@@ -2280,7 +2287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43878</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43880</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43881</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43882</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43883</v>
       </c>
@@ -2346,7 +2353,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43884</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43885</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43886</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43887</v>
       </c>
@@ -2390,7 +2397,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>43888</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>43889</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>43890</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>43891</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>43892</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>43893</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>43894</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>43895</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>43896</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>43897</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>43898</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>43899</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>43900</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>43901</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>43902</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>43903</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>43904</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43905</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43906</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43907</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>43908</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>43909</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>43910</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>43911</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>43912</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>43913</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>43914</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>43915</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>43916</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>43917</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>43918</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>43919</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>43920</v>
       </c>
@@ -2753,8 +2760,16 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2013</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -288,363 +288,366 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$60</c:f>
+              <c:f>Sheet1!$A$4:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>43865</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>43865</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43866</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43867</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43868</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43869</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43870</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43871</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43872</c:v>
+                  <c:v>43873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43873</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43874</c:v>
+                  <c:v>43875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43875</c:v>
+                  <c:v>43876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43876</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43877</c:v>
+                  <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43878</c:v>
+                  <c:v>43879</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43879</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43880</c:v>
+                  <c:v>43881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43881</c:v>
+                  <c:v>43882</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43882</c:v>
+                  <c:v>43883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43883</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43884</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43885</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43886</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43887</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43888</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43889</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43890</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43891</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43892</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43893</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43894</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43895</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43896</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43897</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43898</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43899</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43900</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43901</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43902</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43903</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43904</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43905</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43906</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43907</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43908</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43909</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43910</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43911</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43912</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43913</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43914</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43915</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43916</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43917</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43918</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43919</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43920</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43921</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$60</c:f>
+              <c:f>Sheet1!$B$4:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>98</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>84</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>460</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>426</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>401</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>410</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>127</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>96</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>564</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>407</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>499</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>640</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>144</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>834</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>595</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>603</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>540</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>582</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>121</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>641</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>468</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>499</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>463</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>109</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>114</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>583</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>480</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>447</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>493</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>678</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>223</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>191</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1226</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1080</c:v>
+                  <c:v>1092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,363 +686,366 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$60</c:f>
+              <c:f>Sheet1!$A$4:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>43865</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>43865</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43866</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43867</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43868</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43869</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43870</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43871</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43872</c:v>
+                  <c:v>43873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43873</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43874</c:v>
+                  <c:v>43875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43875</c:v>
+                  <c:v>43876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43876</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43877</c:v>
+                  <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43878</c:v>
+                  <c:v>43879</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43879</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43880</c:v>
+                  <c:v>43881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43881</c:v>
+                  <c:v>43882</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43882</c:v>
+                  <c:v>43883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43883</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43884</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43885</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43886</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43887</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43888</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43889</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43890</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43891</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43892</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43893</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43894</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43895</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43896</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43897</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43898</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43899</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43900</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43901</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43902</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43903</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43904</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43905</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43906</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43907</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43908</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43909</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43910</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43911</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43912</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43913</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43914</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43915</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43916</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43917</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43918</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43919</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43920</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43921</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$60</c:f>
+              <c:f>Sheet1!$C$4:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>119</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>211</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>526</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>410</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>898</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="48">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>878</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>808</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>862</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>804</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>898</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1110</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>878</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>989</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1211</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1163</c:v>
+                  <c:v>883</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>883</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>969</c:v>
+                  <c:v>1839</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1839</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2013</c:v>
+                  <c:v>1822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,7 +1098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="840" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="650" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1236,12 +1242,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1813,13 +1816,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
@@ -2109,10 +2112,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2124,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2769,6 +2772,17 @@
       </c>
       <c r="C60" s="5">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1092</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1822</v>
       </c>
     </row>
   </sheetData>

--- a/contacts2.xlsx
+++ b/contacts2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2112,10 +2112,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2783,6 +2783,28 @@
       </c>
       <c r="C61" s="5">
         <v>1822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1158</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1178</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
